--- a/docs/PPG/CEP.xlsx
+++ b/docs/PPG/CEP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D27D7E-4147-5D49-B9BF-2782824FEC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6542D10F-8770-E549-A716-9DD51A40AA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17500" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEP" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Publicação</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>https://www.unisuam.edu.br/pesquisa-e-inovacao/</t>
+  </si>
+  <si>
+    <t>2023-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://drive.google.com/file/d/12eJfS9105WbEe1-N8u0m66aFsVCmZJfh</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367E97D-F0BA-2542-9952-750D3F1E198F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -548,6 +554,75 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE924A4F-D589-3C4B-9729-4A43A2F840CF}">
   <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C5">
+    <sortCondition descending="1" ref="A1:A5"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{84D5C8E8-003F-0948-AF17-CF60E663BE80}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{5891D25E-7D8F-4A45-AD2D-CEA56B0A8C0F}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -580,107 +655,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:C5">
-    <sortCondition descending="1" ref="A1:A5"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{84D5C8E8-003F-0948-AF17-CF60E663BE80}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{5891D25E-7D8F-4A45-AD2D-CEA56B0A8C0F}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{09E1911B-2449-274E-898B-2B8CCD7F1748}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FC783F-BA40-3F4E-8A53-F6EED60F7198}">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -688,43 +693,43 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -732,59 +737,71 @@
         <v>2020</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2005</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
-    <hyperlink ref="C12" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
-    <hyperlink ref="C5" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{88BB35E6-AD5D-7145-A3E0-1E04E9C7D1A6}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{886EEA76-4AF4-6C42-B23D-AA71D928E812}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{CAF9866D-81C8-EB42-8201-EF552BF654F5}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{59179473-944E-4249-8238-E8F5D115804B}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{79A34460-1B1D-6241-AE41-7D7B56AAC0E4}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{1FC4FF28-157C-8B47-8F93-16F0B359AB79}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{0561548C-AE21-694E-B21D-CFAE431D0896}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{08D6F470-C6CE-4B42-AD3C-28C453701CEF}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{7F61998E-85A7-3B4E-A136-A9D5B658B01E}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{FCC8D137-421B-8C47-B665-295E040C7508}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{C0E4DB13-5CF6-ED4B-AA92-B5AFF015CA9D}"/>
+    <hyperlink ref="C3" r:id="rId12" xr:uid="{5583E5C5-9926-AB49-A143-FEB09802801E}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{382FF0DB-E3E6-FE49-9D70-006B7A4C3A86}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
